--- a/Hackathon/DesignSpecs.xlsx
+++ b/Hackathon/DesignSpecs.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luvsuneja/Documents/repos/python-low-level-design/Hackathon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14B1E57F-9109-294E-A9B1-F46B82EE47C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A1A343-EBF9-0347-9D29-29E01730AAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{6AB39352-15CA-6D44-A9E1-7D7A67E0F585}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{6AB39352-15CA-6D44-A9E1-7D7A67E0F585}"/>
   </bookViews>
   <sheets>
     <sheet name="Functional Requirements" sheetId="1" r:id="rId1"/>
-    <sheet name="API Paths" sheetId="2" r:id="rId2"/>
+    <sheet name="Database Model" sheetId="3" r:id="rId2"/>
+    <sheet name="API Paths" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>Functionality</t>
   </si>
@@ -420,14 +421,97 @@
   </si>
   <si>
     <t>Here is a simplified example of how you might structure one of these paths in FastAPI:</t>
+  </si>
+  <si>
+    <t>builder pattern</t>
+  </si>
+  <si>
+    <t>DB Model</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>seller_id</t>
+  </si>
+  <si>
+    <t>isbn</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>buyer_id</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>book_id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Actual Payment</t>
+  </si>
+  <si>
+    <t>Chain of Responsibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order Placed -&gt; Order Validation -&gt; Payment Type -&gt; Credit Card/UPI/Wallet -&gt; </t>
+  </si>
+  <si>
+    <t>upload books (books creation)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -489,14 +573,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -811,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630671EB-F52C-7C40-A266-06D74970D102}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -824,7 +909,7 @@
     <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -832,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -840,7 +925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -848,7 +933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -856,7 +941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -864,7 +949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -872,7 +957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -880,19 +965,38 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -901,11 +1005,148 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4D8855-1ED1-DD41-ABFF-F0399FCA1345}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B256AC-24B2-EB44-9B7D-6860CB34BC6A}">
   <dimension ref="A2:A144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1295,5 +1536,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Hackathon/DesignSpecs.xlsx
+++ b/Hackathon/DesignSpecs.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luvsuneja/Documents/repos/python-low-level-design/Hackathon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A1A343-EBF9-0347-9D29-29E01730AAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5D445D-B1AC-684D-9054-F911D240CCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{6AB39352-15CA-6D44-A9E1-7D7A67E0F585}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20460" activeTab="1" xr2:uid="{6AB39352-15CA-6D44-A9E1-7D7A67E0F585}"/>
   </bookViews>
   <sheets>
     <sheet name="Functional Requirements" sheetId="1" r:id="rId1"/>
-    <sheet name="Database Model" sheetId="3" r:id="rId2"/>
-    <sheet name="API Paths" sheetId="2" r:id="rId3"/>
+    <sheet name="Singleto" sheetId="5" r:id="rId2"/>
+    <sheet name="Services" sheetId="4" r:id="rId3"/>
+    <sheet name="Database Model" sheetId="3" r:id="rId4"/>
+    <sheet name="API Paths" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="120">
   <si>
     <t>Functionality</t>
   </si>
@@ -95,6 +97,474 @@
   </si>
   <si>
     <r>
+      <t>POST /users/login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Login a user and return a token</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>POST /users/logout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Logout a user and invalidate the token</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Book Service API Paths:</t>
+  </si>
+  <si>
+    <r>
+      <t>POST /books</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Upload a new book (For Sellers/Admin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GET /books</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Get the list of all available books</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GET /books/{book_id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Get details of a specific book</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PUT /books/{book_id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Update details of a specific book (For Sellers/Admin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DELETE /books/{book_id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Delete a specific book (For Sellers/Admin)</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Order Service API Paths:</t>
+  </si>
+  <si>
+    <r>
+      <t>POST /orders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Create a new order</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GET /orders/{order_id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Get details of a specific order (For Buyer/Admin/Seller involved)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PUT /orders/{order_id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Update details of a specific order (For Admin/Seller involved)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DELETE /orders/{order_id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Delete a specific order (For Admin/Seller involved)</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Payment Service API Paths:</t>
+  </si>
+  <si>
+    <r>
+      <t>POST /payments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Initiate a new payment</t>
+    </r>
+  </si>
+  <si>
+    <t>5. Admin Specific API Paths:</t>
+  </si>
+  <si>
+    <r>
+      <t>GET /admin/users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Get the list of all users (For Admin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DELETE /admin/users/{user_id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Delete a specific user (For Admin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PUT /admin/users/{user_id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Update details of a specific user (For Admin)</t>
+    </r>
+  </si>
+  <si>
+    <t>6. Book Search and Browse API Paths:</t>
+  </si>
+  <si>
+    <r>
+      <t>GET /books/category/{category_name}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Browse books by category (For Buyers)</t>
+    </r>
+  </si>
+  <si>
+    <t>Example in FastAPI:</t>
+  </si>
+  <si>
+    <t>Here is a simplified example of how you might structure one of these paths in FastAPI:</t>
+  </si>
+  <si>
+    <t>builder pattern</t>
+  </si>
+  <si>
+    <t>DB Model</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>seller_id</t>
+  </si>
+  <si>
+    <t>isbn</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>buyer_id</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>book_id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Actual Payment</t>
+  </si>
+  <si>
+    <t>Chain of Responsibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order Placed -&gt; Order Validation -&gt; Payment Type -&gt; Credit Card/UPI/Wallet -&gt; </t>
+  </si>
+  <si>
+    <t>upload books (books creation)</t>
+  </si>
+  <si>
+    <t>user (type: email)</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>role: (Seller, Buyer, Admin, Superadmin)</t>
+  </si>
+  <si>
+    <t>Order Process</t>
+  </si>
+  <si>
+    <t>Template Design</t>
+  </si>
+  <si>
+    <t>User Management</t>
+  </si>
+  <si>
+    <t>Sservice</t>
+  </si>
+  <si>
+    <t>Sub Service</t>
+  </si>
+  <si>
+    <t>User Login</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>GET /books/category</t>
+  </si>
+  <si>
+    <t>Get all categories</t>
+  </si>
+  <si>
+    <t>GET /books/{book_id}</t>
+  </si>
+  <si>
+    <t>GET /books/random/{number}</t>
+  </si>
+  <si>
+    <t>Get random books</t>
+  </si>
+  <si>
+    <r>
+      <t>GET /books/search/?author=x&amp;?title=xyz?random=true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Search books with various criteria (For Buyers)</t>
+    </r>
+  </si>
+  <si>
+    <t>implemented in search only</t>
+  </si>
+  <si>
+    <r>
+      <t>GET /orders/{page_1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Get the list of the users orders</t>
+    </r>
+  </si>
+  <si>
+    <t>GET /books/{book_id}/download</t>
+  </si>
+  <si>
+    <t>Download book</t>
+  </si>
+  <si>
+    <r>
+      <t>GET /payments/{payment_id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Get details of a specific payment (For Buyer/Admin/Seller involved)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PUT /payments/{payment_id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Update details of a specific payment (For Admin/Seller involved)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DELETE /payments/{payment_id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Delete a specific payment (For Admin/Seller involved)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">type of </t>
+  </si>
+  <si>
+    <t>payment credentials: {}</t>
+  </si>
+  <si>
+    <t>GET /books/{page}</t>
+  </si>
+  <si>
+    <t>Get seller books</t>
+  </si>
+  <si>
+    <t>POST /books</t>
+  </si>
+  <si>
+    <t>Upload book</t>
+  </si>
+  <si>
+    <t>GET /sales/?last=month or ?from=&amp;to=</t>
+  </si>
+  <si>
+    <t>GET /orders/?last=month or ?from= &amp; to=/{page1}</t>
+  </si>
+  <si>
+    <r>
       <t>POST /users/register</t>
     </r>
     <r>
@@ -106,403 +576,85 @@
       </rPr>
       <t xml:space="preserve"> - Register a new user</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>POST /users/login</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Login a user and return a token</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>POST /users/logout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Logout a user and invalidate the token</t>
-    </r>
-  </si>
-  <si>
-    <t>2. Book Service API Paths:</t>
-  </si>
-  <si>
-    <r>
-      <t>POST /books</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Upload a new book (For Sellers/Admin)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GET /books</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Get the list of all available books</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GET /books/{book_id}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Get details of a specific book</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>PUT /books/{book_id}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Update details of a specific book (For Sellers/Admin)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>DELETE /books/{book_id}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Delete a specific book (For Sellers/Admin)</t>
-    </r>
-  </si>
-  <si>
-    <t>3. Order Service API Paths:</t>
-  </si>
-  <si>
-    <r>
-      <t>POST /orders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Create a new order</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GET /orders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Get the list of all orders (For Admin/Seller involved)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GET /orders/{order_id}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Get details of a specific order (For Buyer/Admin/Seller involved)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>PUT /orders/{order_id}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Update details of a specific order (For Admin/Seller involved)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>DELETE /orders/{order_id}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Delete a specific order (For Admin/Seller involved)</t>
-    </r>
-  </si>
-  <si>
-    <t>4. Payment Service API Paths:</t>
-  </si>
-  <si>
-    <r>
-      <t>POST /payments</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Initiate a new payment</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GET /payments/{payment_id}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Get details of a specific payment (For Buyer/Admin/Seller involved)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>PUT /payments/{payment_id}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Update details of a specific payment (For Admin/Seller involved)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>DELETE /payments/{payment_id}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Delete a specific payment (For Admin/Seller involved)</t>
-    </r>
-  </si>
-  <si>
-    <t>5. Admin Specific API Paths:</t>
-  </si>
-  <si>
-    <r>
-      <t>GET /admin/users</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Get the list of all users (For Admin)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>DELETE /admin/users/{user_id}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Delete a specific user (For Admin)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>PUT /admin/users/{user_id}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Update details of a specific user (For Admin)</t>
-    </r>
-  </si>
-  <si>
-    <t>6. Book Search and Browse API Paths:</t>
-  </si>
-  <si>
-    <r>
-      <t>GET /books/search</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Search books with various criteria (For Buyers)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GET /books/category/{category_name}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Browse books by category (For Buyers)</t>
-    </r>
-  </si>
-  <si>
-    <t>Example in FastAPI:</t>
-  </si>
-  <si>
-    <t>Here is a simplified example of how you might structure one of these paths in FastAPI:</t>
-  </si>
-  <si>
-    <t>builder pattern</t>
-  </si>
-  <si>
-    <t>DB Model</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>Book</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>genre</t>
-  </si>
-  <si>
-    <t>seller_id</t>
-  </si>
-  <si>
-    <t>isbn</t>
-  </si>
-  <si>
-    <t>Transaction</t>
-  </si>
-  <si>
-    <t>buyer_id</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>book_id</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>order_id</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Actual Payment</t>
-  </si>
-  <si>
-    <t>Chain of Responsibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order Placed -&gt; Order Validation -&gt; Payment Type -&gt; Credit Card/UPI/Wallet -&gt; </t>
-  </si>
-  <si>
-    <t>upload books (books creation)</t>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>, can be used to add seller from admin</t>
+    </r>
+  </si>
+  <si>
+    <t>modified_at</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>delete_flag</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>GET /payments/types</t>
+  </si>
+  <si>
+    <t>Get payment types</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>PaymentTypes</t>
+  </si>
+  <si>
+    <t>payment_type_id</t>
+  </si>
+  <si>
+    <t>Creational</t>
+  </si>
+  <si>
+    <t>Behaviorial</t>
+  </si>
+  <si>
+    <t>Structural</t>
+  </si>
+  <si>
+    <t>Simpla Factory</t>
+  </si>
+  <si>
+    <t>Factory Method</t>
+  </si>
+  <si>
+    <t>Abstrac Factory</t>
+  </si>
+  <si>
+    <t>Builder</t>
+  </si>
+  <si>
+    <t>Singleton</t>
+  </si>
+  <si>
+    <t>Observer</t>
+  </si>
+  <si>
+    <t>Command Design</t>
+  </si>
+  <si>
+    <t>Chain Of Responsibility</t>
+  </si>
+  <si>
+    <t>Template</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -552,13 +704,35 @@
       <color rgb="FF2E95D3"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -573,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -582,6 +756,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630671EB-F52C-7C40-A266-06D74970D102}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="225" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -967,10 +1148,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -990,12 +1171,20 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>69</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1005,135 +1194,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4D8855-1ED1-DD41-ABFF-F0399FCA1345}">
-  <dimension ref="A1:B26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38CCFDB-B1FE-F945-97A1-A44A91B45D86}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="357" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
-        <v>49</v>
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
       <c r="B4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
       <c r="B6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="B26" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1142,15 +1263,249 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B256AC-24B2-EB44-9B7D-6860CB34BC6A}">
-  <dimension ref="A2:A144"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50677C7E-AD79-A645-951C-B7D972FDFF74}">
+  <dimension ref="A3:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4D8855-1ED1-DD41-ABFF-F0399FCA1345}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" zoomScale="200" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B256AC-24B2-EB44-9B7D-6860CB34BC6A}">
+  <dimension ref="A2:F153"/>
+  <sheetViews>
+    <sheetView zoomScale="156" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>16</v>
@@ -1163,265 +1518,330 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="19">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="19">
-      <c r="A18" s="2" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:6" s="10" customFormat="1">
+      <c r="A21" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="9" customFormat="1">
+      <c r="A22" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="3" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="3" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="3" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="10" customFormat="1" ht="19">
+      <c r="A28" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="3" t="s">
+    <row r="29" spans="1:6" s="10" customFormat="1"/>
+    <row r="30" spans="1:6" s="10" customFormat="1">
+      <c r="A30" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="9" customFormat="1">
+      <c r="A31" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="19">
-      <c r="A26" s="2" t="s">
+      <c r="D31" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="14" customFormat="1">
+      <c r="A32" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="14" customFormat="1">
+      <c r="A33" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="14" customFormat="1">
+      <c r="A34" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="19">
+      <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="3" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="3" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="3" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="3" t="s">
+    <row r="42" spans="1:3" ht="19">
+      <c r="A42" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="19">
-      <c r="A33" s="2" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="9" customFormat="1">
+      <c r="A46" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="3" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="9" customFormat="1">
+      <c r="A48" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="9" customFormat="1">
+      <c r="A49" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="10" customFormat="1">
+      <c r="A50" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="19">
+      <c r="A53" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3" t="s">
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="19">
-      <c r="A39" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="19">
-      <c r="A44" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="4"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="5"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="6"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="6"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="5"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="6"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="6"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="6"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="6"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="6"/>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="1"/>
+    <row r="57" spans="1:5">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="5"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="6"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="6"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="5"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="6"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="1"/>
+      <c r="A65" s="6"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="6"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="69" spans="1:1" ht="19">
-      <c r="A69" s="2"/>
+      <c r="A67" s="6"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="6"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="4"/>
+      <c r="A71" s="1"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="5"/>
+      <c r="A72" s="1"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="5"/>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="6"/>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="6"/>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="5"/>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="6"/>
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="78" spans="1:1" ht="19">
+      <c r="A78" s="2"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="6"/>
+      <c r="A80" s="4"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="6"/>
+      <c r="A81" s="5"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="6"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="6"/>
+      <c r="A82" s="5"/>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="6"/>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="6"/>
+    <row r="86" spans="1:1">
+      <c r="A86" s="6"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="1"/>
+      <c r="A87" s="5"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="6"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="4"/>
+      <c r="A89" s="6"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="5"/>
+      <c r="A90" s="6"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="6"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="1"/>
+      <c r="A92" s="6"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="6"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="4"/>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="5"/>
+      <c r="A94" s="6"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="5"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="5"/>
-    </row>
-    <row r="99" spans="1:1" ht="19">
-      <c r="A99" s="2"/>
+      <c r="A96" s="1"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="4"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="5"/>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1"/>
@@ -1438,35 +1858,32 @@
     <row r="106" spans="1:1">
       <c r="A106" s="5"/>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="6"/>
+    <row r="108" spans="1:1" ht="19">
+      <c r="A108" s="2"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="5"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="6"/>
+      <c r="A110" s="1"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="6"/>
+      <c r="A112" s="4"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="6"/>
+      <c r="A113" s="5"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="6"/>
+      <c r="A114" s="5"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="6"/>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="6"/>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="6"/>
+      <c r="A115" s="5"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="6"/>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="6"/>
+      <c r="A119" s="5"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="6"/>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="6"/>
@@ -1474,14 +1891,14 @@
     <row r="122" spans="1:1">
       <c r="A122" s="6"/>
     </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="6"/>
+    </row>
     <row r="124" spans="1:1">
       <c r="A124" s="6"/>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="5"/>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="6"/>
+      <c r="A125" s="6"/>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="6"/>
@@ -1489,23 +1906,17 @@
     <row r="128" spans="1:1">
       <c r="A128" s="6"/>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="6"/>
-    </row>
     <row r="130" spans="1:1">
       <c r="A130" s="6"/>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="6"/>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="6"/>
-    </row>
     <row r="133" spans="1:1">
       <c r="A133" s="6"/>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="6"/>
+      <c r="A134" s="5"/>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="6"/>
@@ -1531,8 +1942,35 @@
     <row r="142" spans="1:1">
       <c r="A142" s="6"/>
     </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="6"/>
+    </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="1"/>
+      <c r="A144" s="6"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="6"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="6"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="6"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="6"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="6"/>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="6"/>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="6"/>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hackathon/DesignSpecs.xlsx
+++ b/Hackathon/DesignSpecs.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luvsuneja/Documents/repos/python-low-level-design/Hackathon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5D445D-B1AC-684D-9054-F911D240CCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2823B8-1341-C14E-9F38-81A4AD8248A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20460" activeTab="1" xr2:uid="{6AB39352-15CA-6D44-A9E1-7D7A67E0F585}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20460" activeTab="3" xr2:uid="{6AB39352-15CA-6D44-A9E1-7D7A67E0F585}"/>
   </bookViews>
   <sheets>
     <sheet name="Functional Requirements" sheetId="1" r:id="rId1"/>
-    <sheet name="Singleto" sheetId="5" r:id="rId2"/>
+    <sheet name="DP" sheetId="5" r:id="rId2"/>
     <sheet name="Services" sheetId="4" r:id="rId3"/>
     <sheet name="Database Model" sheetId="3" r:id="rId4"/>
     <sheet name="API Paths" sheetId="2" r:id="rId5"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="136">
   <si>
     <t>Functionality</t>
   </si>
@@ -429,21 +429,6 @@
   </si>
   <si>
     <t>Template Design</t>
-  </si>
-  <si>
-    <t>User Management</t>
-  </si>
-  <si>
-    <t>Sservice</t>
-  </si>
-  <si>
-    <t>Sub Service</t>
-  </si>
-  <si>
-    <t>User Login</t>
-  </si>
-  <si>
-    <t>Pattern</t>
   </si>
   <si>
     <t>Strategy</t>
@@ -648,6 +633,69 @@
   </si>
   <si>
     <t>Template</t>
+  </si>
+  <si>
+    <t>Composite</t>
+  </si>
+  <si>
+    <t>Adapter</t>
+  </si>
+  <si>
+    <t>Decorator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridge </t>
+  </si>
+  <si>
+    <t>Proxy</t>
+  </si>
+  <si>
+    <t>Façade</t>
+  </si>
+  <si>
+    <t>Iterator</t>
+  </si>
+  <si>
+    <t>Prototype</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Asignee</t>
+  </si>
+  <si>
+    <t>BookExplorer</t>
+  </si>
+  <si>
+    <t>BooksService</t>
+  </si>
+  <si>
+    <t>OrderSevice</t>
+  </si>
+  <si>
+    <t>PaymentService</t>
+  </si>
+  <si>
+    <t>SalesTracker</t>
+  </si>
+  <si>
+    <t>AuthenticationService</t>
+  </si>
+  <si>
+    <t>UserManagement</t>
+  </si>
+  <si>
+    <t>Anu/Luv</t>
+  </si>
+  <si>
+    <t>Mohit/Piyush</t>
+  </si>
+  <si>
+    <t>Haran/Mohit</t>
+  </si>
+  <si>
+    <t>Luv/Haran</t>
   </si>
 </sst>
 </file>
@@ -1079,9 +1127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630671EB-F52C-7C40-A266-06D74970D102}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScale="225" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView zoomScale="225" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -1195,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38CCFDB-B1FE-F945-97A1-A44A91B45D86}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="357" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="357" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1208,53 +1254,79 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
         <v>111</v>
       </c>
-      <c r="B2" t="s">
-        <v>116</v>
+      <c r="C2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
         <v>112</v>
       </c>
-      <c r="B3" t="s">
-        <v>117</v>
+      <c r="C3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
         <v>113</v>
       </c>
-      <c r="B4" t="s">
-        <v>118</v>
+      <c r="C4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
         <v>114</v>
       </c>
-      <c r="B5" t="s">
-        <v>119</v>
+      <c r="C5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1264,37 +1336,79 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50677C7E-AD79-A645-951C-B7D972FDFF74}">
-  <dimension ref="A3:C4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="318" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1306,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4D8855-1ED1-DD41-ABFF-F0399FCA1345}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1357,7 +1471,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1388,7 +1502,7 @@
         <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1408,15 +1522,15 @@
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1472,12 +1586,12 @@
     </row>
     <row r="33" spans="1:2">
       <c r="B33" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
         <v>55</v>
@@ -1485,20 +1599,21 @@
     </row>
     <row r="37" spans="1:2">
       <c r="B37" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B256AC-24B2-EB44-9B7D-6860CB34BC6A}">
-  <dimension ref="A2:F153"/>
+  <dimension ref="A2:G153"/>
   <sheetViews>
-    <sheetView zoomScale="156" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A31" zoomScale="156" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1518,7 +1633,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -1573,7 +1688,7 @@
     </row>
     <row r="21" spans="1:6" s="10" customFormat="1">
       <c r="A21" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="9" customFormat="1">
@@ -1603,12 +1718,12 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="10" customFormat="1" ht="19">
@@ -1619,10 +1734,10 @@
     <row r="29" spans="1:6" s="10" customFormat="1"/>
     <row r="30" spans="1:6" s="10" customFormat="1">
       <c r="A30" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="9" customFormat="1">
@@ -1630,108 +1745,111 @@
         <v>32</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="14" customFormat="1">
       <c r="A32" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="14" customFormat="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="14" customFormat="1">
       <c r="A33" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="14" customFormat="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="14" customFormat="1">
       <c r="A34" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="19">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:7">
       <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:7">
       <c r="A40" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="19">
+    <row r="42" spans="1:7" ht="19">
       <c r="A42" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="G42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="9" customFormat="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="9" customFormat="1">
       <c r="A46" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:7">
       <c r="A47" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="9" customFormat="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="9" customFormat="1">
       <c r="A48" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="9" customFormat="1">
       <c r="A49" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="10" customFormat="1">
       <c r="A50" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="19">
